--- a/2018register2.xlsx
+++ b/2018register2.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>性別</t>
-  </si>
-  <si>
-    <t>原系所</t>
   </si>
   <si>
     <t>原學校入學日</t>
@@ -33,21 +30,6 @@
   <si>
     <t>原始學校</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>出生年月日(西元年月日)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
-        <charset val="136"/>
-      </rPr>
-      <t>格式為八碼數字，如：19920511</t>
-    </r>
   </si>
   <si>
     <t>中文名</t>
@@ -70,85 +52,161 @@
     <t>EMAIL</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
+    <t>居住地址電話</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 聯絡地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 聯絡地址電話</t>
+  </si>
+  <si>
+    <t>父親名</t>
+  </si>
+  <si>
+    <t>緊急聯絡電話</t>
+  </si>
+  <si>
+    <t>母親名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否吃全素
+(素食者/非素食者)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>出生年月日(西元年月日)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>格式為八碼數字，如：19920511</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>居住地址(戶籍地)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>須填寫完整地址，以申辦入台證</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">父親出生年月日
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>格式為八碼數字，如：19920511</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">母親出生年月日
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>格式為八碼數字，如：19920511</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">原系所/學制
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>如</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="新細明體"/>
         <family val="1"/>
         <charset val="136"/>
       </rPr>
-      <t>居住地址(戶籍地)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>中文系/碩士班</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>是否飲食過敏(如是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PMingLiU"/>
         <family val="1"/>
         <charset val="136"/>
       </rPr>
-      <t>須填寫完整地址，以申辦入台證</t>
-    </r>
-  </si>
-  <si>
-    <t>居住地址電話</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 聯絡地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 聯絡地址電話</t>
-  </si>
-  <si>
-    <t>父親名</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">父親出生年月日
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>格式為八碼數字，如：19920511</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">母親出生年月日
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>格式為八碼數字，如：19920511</t>
-    </r>
-  </si>
-  <si>
-    <t>緊急聯絡電話</t>
-  </si>
-  <si>
-    <t>母親名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否吃全素
-(素食者/非素食者)</t>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>請列出食物名稱)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -171,55 +229,55 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="微軟正黑體"/>
       <family val="2"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
       <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
       <charset val="136"/>
-      <scheme val="major"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
       <charset val="136"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="1"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
       <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <name val="PMingLiU"/>
       <family val="1"/>
       <charset val="136"/>
     </font>
@@ -268,26 +326,26 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -592,15 +650,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="4" max="4" width="16.140625" customWidth="1"/>
@@ -608,6 +666,7 @@
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
     <col min="9" max="9" width="16.42578125" customWidth="1"/>
     <col min="10" max="10" width="23.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" customWidth="1"/>
     <col min="12" max="12" width="19.42578125" customWidth="1"/>
     <col min="13" max="13" width="15.140625" customWidth="1"/>
     <col min="14" max="14" width="14.140625" customWidth="1"/>
@@ -620,109 +679,113 @@
     <col min="21" max="21" width="12.85546875" customWidth="1"/>
     <col min="22" max="22" width="17.28515625" customWidth="1"/>
     <col min="23" max="23" width="23.140625" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="8" customFormat="1" ht="63" customHeight="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:24" s="6" customFormat="1" ht="63" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="L1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="4" t="s">
+      <c r="U1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="V1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>22</v>
+      <c r="X1" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
+    <row r="2" spans="1:24" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
     </row>
-    <row r="3" spans="1:23" ht="20.100000000000001" customHeight="1"/>
-    <row r="4" spans="1:23" ht="20.100000000000001" customHeight="1"/>
-    <row r="5" spans="1:23" ht="20.100000000000001" customHeight="1"/>
-    <row r="6" spans="1:23" ht="20.100000000000001" customHeight="1"/>
-    <row r="7" spans="1:23" ht="20.100000000000001" customHeight="1"/>
+    <row r="3" spans="1:24" ht="20.100000000000001" customHeight="1"/>
+    <row r="4" spans="1:24" ht="20.100000000000001" customHeight="1"/>
+    <row r="5" spans="1:24" ht="20.100000000000001" customHeight="1"/>
+    <row r="6" spans="1:24" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/2018register2.xlsx
+++ b/2018register2.xlsx
@@ -1,25 +1,229 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="5925" windowWidth="21240" windowHeight="6060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10260"/>
   </bookViews>
   <sheets>
     <sheet name="學生資料表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="114210" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t>原始學校</t>
+  </si>
+  <si>
+    <t>原系所</t>
+  </si>
+  <si>
+    <t>原學校入學日</t>
+  </si>
+  <si>
+    <t>中文名</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>英文名</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>同護照，中文名之英文拼音，不要填寫Andy、Mary等外國名</t>
+    </r>
+  </si>
   <si>
     <t>性別</t>
   </si>
   <si>
-    <t>原學校入學日</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>出生年月日(西元年月日)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>格式為八碼數字，如：19920511</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>出生地(省)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>請填寫出生省市，不要填寫“中國大陸”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>出生地(市)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>請填寫出生省市，不要填寫“中國大陸”</t>
+    </r>
+  </si>
+  <si>
+    <t>身分證號</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>居住地址(戶籍地)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>須填寫與身分證上相同的完整地址，以申辦入台證</t>
+    </r>
+  </si>
+  <si>
+    <t>居住地址電話</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 聯絡地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 聯絡地址電話</t>
+  </si>
+  <si>
+    <t>父親名</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">父親出生年月日
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>格式為八碼數字，如：19920511</t>
+    </r>
+  </si>
+  <si>
+    <t>母親名</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">母親出生年月日
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>格式為八碼數字，如：19920511</t>
+    </r>
   </si>
   <si>
     <t>緊急聯絡人</t>
@@ -28,203 +232,85 @@
     <t>關係</t>
   </si>
   <si>
-    <t>原始學校</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文名</t>
-  </si>
-  <si>
-    <t>英文名
-(同護照)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出生地(省)</t>
-  </si>
-  <si>
-    <t>出生地(市)</t>
-  </si>
-  <si>
-    <t>身分證號</t>
-  </si>
-  <si>
-    <t>EMAIL</t>
-  </si>
-  <si>
-    <t>居住地址電話</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 聯絡地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 聯絡地址電話</t>
-  </si>
-  <si>
-    <t>父親名</t>
-  </si>
-  <si>
     <t>緊急聯絡電話</t>
-  </si>
-  <si>
-    <t>母親名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否吃全素
 (素食者/非素食者)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>出生年月日(西元年月日)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微軟正黑體"/>
+  </si>
+  <si>
+    <r>
+      <t>飲食禁忌（如：不能吃、會過敏的食品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>格式為八碼數字，如：19920511</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>居住地址(戶籍地)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>須填寫完整地址，以申辦入台證</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">父親出生年月日
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>格式為八碼數字，如：19920511</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">母親出生年月日
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>格式為八碼數字，如：19920511</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">原系所/學制
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>如</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>中文系/碩士班</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>是否飲食過敏(如是</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>請列出食物名稱)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+      </rPr>
+      <t>...</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>學位別(學士班or碩士班)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
-    <font>
+  <fonts count="12">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="細明體"/>
-      <family val="3"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -233,52 +319,37 @@
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
+      <scheme val="major"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="微軟正黑體"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="細明體"/>
+      <family val="3"/>
       <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="PMingLiU"/>
-      <family val="1"/>
+      <name val="細明體"/>
+      <family val="3"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -306,16 +377,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -323,10 +394,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -335,17 +420,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -650,146 +728,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X6"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" customWidth="1"/>
-    <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="19.140625" customWidth="1"/>
-    <col min="18" max="18" width="11.85546875" customWidth="1"/>
-    <col min="19" max="19" width="17.28515625" customWidth="1"/>
-    <col min="20" max="20" width="18.7109375" customWidth="1"/>
-    <col min="21" max="21" width="12.85546875" customWidth="1"/>
-    <col min="22" max="22" width="17.28515625" customWidth="1"/>
-    <col min="23" max="23" width="23.140625" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" customWidth="1"/>
+    <col min="17" max="17" width="11" customWidth="1"/>
+    <col min="18" max="18" width="19.140625" customWidth="1"/>
+    <col min="19" max="19" width="11.85546875" customWidth="1"/>
+    <col min="20" max="20" width="17.28515625" customWidth="1"/>
+    <col min="21" max="21" width="18.7109375" customWidth="1"/>
+    <col min="22" max="22" width="12.85546875" customWidth="1"/>
+    <col min="23" max="23" width="17.28515625" customWidth="1"/>
+    <col min="24" max="24" width="23.140625" customWidth="1"/>
+    <col min="25" max="25" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="6" customFormat="1" ht="63" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="78.75">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="X1" s="7" t="s">
+      <c r="Y1" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
+    <row r="2" spans="1:25" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="12"/>
     </row>
-    <row r="3" spans="1:24" ht="20.100000000000001" customHeight="1"/>
-    <row r="4" spans="1:24" ht="20.100000000000001" customHeight="1"/>
-    <row r="5" spans="1:24" ht="20.100000000000001" customHeight="1"/>
-    <row r="6" spans="1:24" ht="20.100000000000001" customHeight="1"/>
+    <row r="3" spans="1:25" ht="20.100000000000001" customHeight="1"/>
+    <row r="4" spans="1:25" ht="20.100000000000001" customHeight="1"/>
+    <row r="5" spans="1:25" ht="20.100000000000001" customHeight="1"/>
+    <row r="6" spans="1:25" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>